--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H2">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I2">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J2">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N2">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q2">
-        <v>26.38944847652866</v>
+        <v>535.5139346236631</v>
       </c>
       <c r="R2">
-        <v>26.38944847652866</v>
+        <v>4819.625411612968</v>
       </c>
       <c r="S2">
-        <v>0.1056030131946371</v>
+        <v>0.3541717128989525</v>
       </c>
       <c r="T2">
-        <v>0.1056030131946371</v>
+        <v>0.3541717128989524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H3">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I3">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J3">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N3">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q3">
-        <v>90.72236166036112</v>
+        <v>441.4777392573799</v>
       </c>
       <c r="R3">
-        <v>90.72236166036112</v>
+        <v>3973.29965331642</v>
       </c>
       <c r="S3">
-        <v>0.363044902737884</v>
+        <v>0.2919791942098126</v>
       </c>
       <c r="T3">
-        <v>0.363044902737884</v>
+        <v>0.2919791942098125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H4">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I4">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J4">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N4">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q4">
-        <v>73.0087975018761</v>
+        <v>393.5676124911467</v>
       </c>
       <c r="R4">
-        <v>73.0087975018761</v>
+        <v>3542.10851242032</v>
       </c>
       <c r="S4">
-        <v>0.2921602932616269</v>
+        <v>0.2602929754862466</v>
       </c>
       <c r="T4">
-        <v>0.2921602932616269</v>
+        <v>0.2602929754862465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H5">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I5">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J5">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N5">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q5">
-        <v>0.179590157151699</v>
+        <v>2.457203334857333</v>
       </c>
       <c r="R5">
-        <v>0.179590157151699</v>
+        <v>22.114830013716</v>
       </c>
       <c r="S5">
-        <v>0.0007186683629324771</v>
+        <v>0.001625115347668835</v>
       </c>
       <c r="T5">
-        <v>0.0007186683629324771</v>
+        <v>0.001625115347668835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H6">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I6">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J6">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N6">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q6">
-        <v>0.6173999127813802</v>
+        <v>2.025718665809999</v>
       </c>
       <c r="R6">
-        <v>0.6173999127813802</v>
+        <v>18.23146799229</v>
       </c>
       <c r="S6">
-        <v>0.002470657588536171</v>
+        <v>0.001339745249067149</v>
       </c>
       <c r="T6">
-        <v>0.002470657588536171</v>
+        <v>0.001339745249067149</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H7">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I7">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J7">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N7">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O7">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P7">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q7">
-        <v>0.4968524229856599</v>
+        <v>1.80588325976</v>
       </c>
       <c r="R7">
-        <v>0.4968524229856599</v>
+        <v>16.25294933784</v>
       </c>
       <c r="S7">
-        <v>0.001988261066805135</v>
+        <v>0.001194353173749293</v>
       </c>
       <c r="T7">
-        <v>0.001988261066805135</v>
+        <v>0.001194353173749293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H8">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I8">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J8">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N8">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O8">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P8">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q8">
-        <v>8.117033569037464</v>
+        <v>52.81439759009822</v>
       </c>
       <c r="R8">
-        <v>8.117033569037464</v>
+        <v>475.329578310884</v>
       </c>
       <c r="S8">
-        <v>0.03248204311108556</v>
+        <v>0.03492974589607411</v>
       </c>
       <c r="T8">
-        <v>0.03248204311108556</v>
+        <v>0.0349297458960741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H9">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I9">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J9">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N9">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P9">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q9">
-        <v>27.90495813940467</v>
+        <v>43.54019445768999</v>
       </c>
       <c r="R9">
-        <v>27.90495813940467</v>
+        <v>391.8617501192099</v>
       </c>
       <c r="S9">
-        <v>0.1116676487275713</v>
+        <v>0.02879608587939093</v>
       </c>
       <c r="T9">
-        <v>0.1116676487275713</v>
+        <v>0.02879608587939093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H10">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I10">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J10">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N10">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O10">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P10">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q10">
-        <v>22.45650797457443</v>
+        <v>38.81511762957333</v>
       </c>
       <c r="R10">
-        <v>22.45650797457443</v>
+        <v>349.33605866616</v>
       </c>
       <c r="S10">
-        <v>0.08986451194892139</v>
+        <v>0.02567107185903816</v>
       </c>
       <c r="T10">
-        <v>0.08986451194892139</v>
+        <v>0.02567107185903815</v>
       </c>
     </row>
   </sheetData>
